--- a/Тесты Вконтакте.xlsx
+++ b/Тесты Вконтакте.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="115">
   <si>
     <t>passed</t>
   </si>
@@ -899,6 +899,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -913,21 +928,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1267,7 +1267,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1323,10 +1323,10 @@
   <dimension ref="A1:DT61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1370,7 +1370,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$42,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1415,7 +1415,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$42,"passed")</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1542,43 +1542,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="43" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="43"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="43"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1588,29 +1588,29 @@
     </row>
     <row r="7" spans="1:124" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="45"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="43"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="43"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="43"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1640,7 +1640,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1712,7 +1714,9 @@
       <c r="I10" s="21"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1882,7 +1886,9 @@
       <c r="I12" s="21"/>
       <c r="J12" s="20"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M12" s="11"/>
       <c r="N12" s="6"/>
       <c r="O12" s="11"/>
@@ -1918,7 +1924,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1954,7 +1962,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1990,7 +2000,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2026,7 +2038,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2061,7 +2075,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2099,7 +2115,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2135,7 +2153,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -2171,7 +2191,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
       <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M20" s="11"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11"/>
@@ -2207,7 +2229,9 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
       <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M21" s="11"/>
       <c r="N21" s="6"/>
       <c r="O21" s="11"/>
@@ -2243,7 +2267,9 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
       <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M22" s="11"/>
       <c r="N22" s="6"/>
       <c r="O22" s="11"/>
@@ -2279,7 +2305,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="20"/>
       <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M23" s="11"/>
       <c r="N23" s="6"/>
       <c r="O23" s="11"/>
@@ -2315,7 +2343,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="11"/>
@@ -2353,7 +2383,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="20"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -2389,7 +2421,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -2425,7 +2459,9 @@
       <c r="I27" s="21"/>
       <c r="J27" s="20"/>
       <c r="K27" s="10"/>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M27" s="11"/>
       <c r="N27" s="6"/>
       <c r="O27" s="11"/>
@@ -2461,7 +2497,9 @@
       <c r="I28" s="21"/>
       <c r="J28" s="20"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="6"/>
+      <c r="L28" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M28" s="11"/>
       <c r="N28" s="6"/>
       <c r="O28" s="11"/>
@@ -2497,7 +2535,9 @@
       <c r="I29" s="21"/>
       <c r="J29" s="20"/>
       <c r="K29" s="10"/>
-      <c r="L29" s="6"/>
+      <c r="L29" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M29" s="11"/>
       <c r="N29" s="6"/>
       <c r="O29" s="11"/>
@@ -2533,7 +2573,9 @@
       <c r="I30" s="28"/>
       <c r="J30" s="20"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M30" s="11"/>
       <c r="N30" s="6"/>
       <c r="O30" s="11"/>
@@ -2569,7 +2611,9 @@
       <c r="I31" s="21"/>
       <c r="J31" s="20"/>
       <c r="K31" s="10"/>
-      <c r="L31" s="6"/>
+      <c r="L31" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M31" s="11"/>
       <c r="N31" s="6"/>
       <c r="O31" s="11"/>
@@ -2607,7 +2651,9 @@
       <c r="I32" s="21"/>
       <c r="J32" s="20"/>
       <c r="K32" s="10"/>
-      <c r="L32" s="6"/>
+      <c r="L32" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M32" s="11"/>
       <c r="N32" s="6"/>
       <c r="O32" s="11"/>
@@ -2645,7 +2691,9 @@
       <c r="I33" s="21"/>
       <c r="J33" s="20"/>
       <c r="K33" s="10"/>
-      <c r="L33" s="6"/>
+      <c r="L33" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M33" s="11"/>
       <c r="N33" s="6"/>
       <c r="O33" s="11"/>
@@ -2681,7 +2729,9 @@
       <c r="I34" s="21"/>
       <c r="J34" s="20"/>
       <c r="K34" s="10"/>
-      <c r="L34" s="6"/>
+      <c r="L34" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M34" s="11"/>
       <c r="N34" s="6"/>
       <c r="O34" s="11"/>
@@ -2717,7 +2767,9 @@
       <c r="I35" s="21"/>
       <c r="J35" s="20"/>
       <c r="K35" s="10"/>
-      <c r="L35" s="6"/>
+      <c r="L35" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M35" s="11"/>
       <c r="N35" s="6"/>
       <c r="O35" s="11"/>
@@ -2753,7 +2805,9 @@
       <c r="I36" s="21"/>
       <c r="J36" s="20"/>
       <c r="K36" s="10"/>
-      <c r="L36" s="6"/>
+      <c r="L36" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M36" s="11"/>
       <c r="N36" s="6"/>
       <c r="O36" s="11"/>
@@ -2789,7 +2843,9 @@
       <c r="I37" s="21"/>
       <c r="J37" s="20"/>
       <c r="K37" s="10"/>
-      <c r="L37" s="6"/>
+      <c r="L37" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M37" s="11"/>
       <c r="N37" s="6"/>
       <c r="O37" s="11"/>
@@ -2825,7 +2881,9 @@
       <c r="I38" s="21"/>
       <c r="J38" s="20"/>
       <c r="K38" s="10"/>
-      <c r="L38" s="6"/>
+      <c r="L38" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M38" s="11"/>
       <c r="N38" s="6"/>
       <c r="O38" s="11"/>
@@ -2861,7 +2919,9 @@
       <c r="I39" s="21"/>
       <c r="J39" s="20"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="6"/>
+      <c r="L39" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M39" s="11"/>
       <c r="N39" s="6"/>
       <c r="O39" s="11"/>
@@ -2897,7 +2957,9 @@
       <c r="I40" s="21"/>
       <c r="J40" s="20"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="6"/>
+      <c r="L40" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M40" s="11"/>
       <c r="N40" s="6"/>
       <c r="O40" s="11"/>
@@ -2933,7 +2995,9 @@
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="10"/>
-      <c r="L41" s="6"/>
+      <c r="L41" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="M41" s="11"/>
       <c r="N41" s="6"/>
       <c r="O41" s="11"/>
@@ -2969,7 +3033,9 @@
       <c r="I42" s="14"/>
       <c r="J42" s="26"/>
       <c r="K42" s="15"/>
-      <c r="L42" s="6"/>
+      <c r="L42" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M42" s="11"/>
       <c r="N42" s="6"/>
       <c r="O42" s="11"/>
@@ -3444,6 +3510,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3451,12 +3523,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L12:L42 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N42">
